--- a/_BuildChecklist - Template.xlsx
+++ b/_BuildChecklist - Template.xlsx
@@ -1230,7 +1230,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2022,8 +2022,7 @@
     <hyperlink ref="E48" r:id="rId1"/>
     <hyperlink ref="E31" r:id="rId2"/>
     <hyperlink ref="D24" r:id="rId3"/>
-    <hyperlink ref="D9" location="Screenshots!B113" display="Firewall"/>
-    <hyperlink ref="E9" location="Screenshots!B113" display="Firewall"/>
+    <hyperlink ref="D9" location="Screenshots!B123" display="Firewall"/>
     <hyperlink ref="D30" r:id="rId4"/>
     <hyperlink ref="D31" r:id="rId5"/>
     <hyperlink ref="D37" r:id="rId6"/>
@@ -2042,15 +2041,13 @@
     <hyperlink ref="D29" r:id="rId19"/>
     <hyperlink ref="D28" r:id="rId20"/>
     <hyperlink ref="D32" r:id="rId21"/>
-    <hyperlink ref="D3" location="'Email Template to Server Team'!A1" display="Email Template to Server Team"/>
-    <hyperlink ref="E3" location="'Email Template to Server Team'!A1" display="Email Template to Server Team"/>
+    <hyperlink ref="D3" location="'Email Template for build'!A1" display="Email Template to Server Team"/>
+    <hyperlink ref="E3" location="'Email Template for build'!A1" display="Email Template to Server Team"/>
     <hyperlink ref="D13" location="Screenshots!A1" display="Screenshots"/>
     <hyperlink ref="E13" location="Screenshots!A1" display="Screenshots"/>
-    <hyperlink ref="D14" location="Screenshots!A144" display="Kerberos Delegation Tab"/>
-    <hyperlink ref="E14" location="Screenshots!A144" display="Kerberos Delegation Tab"/>
+    <hyperlink ref="D14" location="Screenshots!A149" display="Kerberos Delegation Tab"/>
     <hyperlink ref="D33" r:id="rId22"/>
-    <hyperlink ref="D18" location="Screenshots!A183" display="MSDTC Screenshot"/>
-    <hyperlink ref="E18" location="Screenshots!A183" display="MSDTC Screenshot"/>
+    <hyperlink ref="D18" location="Screenshots!A187" display="MSDTC Screenshot"/>
     <hyperlink ref="E24" r:id="rId23"/>
     <hyperlink ref="E25" r:id="rId24"/>
     <hyperlink ref="E26" r:id="rId25"/>
@@ -2072,6 +2069,9 @@
     <hyperlink ref="E43" r:id="rId41"/>
     <hyperlink ref="E44" r:id="rId42"/>
     <hyperlink ref="E45" r:id="rId43"/>
+    <hyperlink ref="E9" location="Screenshots!B123" display="Firewall"/>
+    <hyperlink ref="E14" location="Screenshots!A149" display="Kerberos Delegation Tab"/>
+    <hyperlink ref="E18" location="Screenshots!A187" display="MSDTC Screenshot"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId44"/>
@@ -2083,9 +2083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2295,7 +2293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="O6:O8"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection activeCell="A183" sqref="A183"/>
     </sheetView>
   </sheetViews>

--- a/_BuildChecklist - Template.xlsx
+++ b/_BuildChecklist - Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakarney\OneDrive - Microsoft\Chalk-Talks\Installation Best Practices\BuildChecklist\Builds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{B28F1BA2-6948-41A6-AEB7-DE6F6D71CC79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{2CA256BC-AE76-4492-A30E-555A2449A5C3}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="13_ncr:1_{B28F1BA2-6948-41A6-AEB7-DE6F6D71CC79}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{3F2735CC-E778-4509-974A-A0205592477F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" tabRatio="749" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1228,9 +1228,9 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1879,23 +1879,23 @@
     <hyperlink ref="E7" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
     <hyperlink ref="E9" location="Screenshots!B123" display="Firewall" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="E14" location="Screenshots!A149" display="Kerberos Delegation Tab" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="E21" r:id="rId19" xr:uid="{C8F4B769-FF7B-4363-AEF6-56C5511A5424}"/>
-    <hyperlink ref="E22" r:id="rId20" xr:uid="{BC7C9F42-429C-4E7F-A722-0ACD3333133D}"/>
-    <hyperlink ref="E23" r:id="rId21" xr:uid="{D7E134A0-6B92-4262-93EF-43BBA1BDC7BB}"/>
-    <hyperlink ref="E25" r:id="rId22" xr:uid="{C1FEC6FB-187C-48A0-9401-68955AB07BAD}"/>
-    <hyperlink ref="E27" r:id="rId23" xr:uid="{137DA5DA-EB6F-4A46-9AEF-38E0ABA1FA63}"/>
-    <hyperlink ref="E28" r:id="rId24" xr:uid="{72B13CC3-3B2D-4398-88A1-88402EDCBBF8}"/>
-    <hyperlink ref="E29" r:id="rId25" xr:uid="{524191F2-D704-4E6B-9CDD-03C0B2DF54CC}"/>
-    <hyperlink ref="E31" r:id="rId26" xr:uid="{033C1AF8-A250-4367-956D-4ABE86DEAF5D}"/>
-    <hyperlink ref="E32" r:id="rId27" xr:uid="{0D57DCC9-4501-48B2-975A-BBB46679ECDA}"/>
-    <hyperlink ref="E33" r:id="rId28" xr:uid="{3AB86BAF-ACC3-4FF8-9833-35EDA0522BFF}"/>
-    <hyperlink ref="E34" r:id="rId29" xr:uid="{BEDD36D7-7BF0-4C1E-BE3E-FB23089E7133}"/>
-    <hyperlink ref="E35" r:id="rId30" xr:uid="{0AE83ED1-EC11-4A68-A99E-4CA6162738BA}"/>
-    <hyperlink ref="E36" r:id="rId31" xr:uid="{3A2613E2-7CEA-4B35-A78C-71DBD9456561}"/>
-    <hyperlink ref="E37" r:id="rId32" xr:uid="{FC235815-3203-4662-BBAC-ED62B644BB26}"/>
-    <hyperlink ref="C6" r:id="rId33" xr:uid="{7EF36710-01C0-4FE3-B21F-38371383817C}"/>
-    <hyperlink ref="E30" r:id="rId34" xr:uid="{594E3E60-A639-4655-BB91-67F59698FFFC}"/>
-    <hyperlink ref="D30" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E22" r:id="rId19" xr:uid="{BC7C9F42-429C-4E7F-A722-0ACD3333133D}"/>
+    <hyperlink ref="E23" r:id="rId20" xr:uid="{D7E134A0-6B92-4262-93EF-43BBA1BDC7BB}"/>
+    <hyperlink ref="E25" r:id="rId21" xr:uid="{C1FEC6FB-187C-48A0-9401-68955AB07BAD}"/>
+    <hyperlink ref="E27" r:id="rId22" xr:uid="{137DA5DA-EB6F-4A46-9AEF-38E0ABA1FA63}"/>
+    <hyperlink ref="E28" r:id="rId23" xr:uid="{72B13CC3-3B2D-4398-88A1-88402EDCBBF8}"/>
+    <hyperlink ref="E29" r:id="rId24" xr:uid="{524191F2-D704-4E6B-9CDD-03C0B2DF54CC}"/>
+    <hyperlink ref="E31" r:id="rId25" xr:uid="{033C1AF8-A250-4367-956D-4ABE86DEAF5D}"/>
+    <hyperlink ref="E32" r:id="rId26" xr:uid="{0D57DCC9-4501-48B2-975A-BBB46679ECDA}"/>
+    <hyperlink ref="E33" r:id="rId27" xr:uid="{3AB86BAF-ACC3-4FF8-9833-35EDA0522BFF}"/>
+    <hyperlink ref="E34" r:id="rId28" xr:uid="{BEDD36D7-7BF0-4C1E-BE3E-FB23089E7133}"/>
+    <hyperlink ref="E35" r:id="rId29" xr:uid="{0AE83ED1-EC11-4A68-A99E-4CA6162738BA}"/>
+    <hyperlink ref="E36" r:id="rId30" xr:uid="{3A2613E2-7CEA-4B35-A78C-71DBD9456561}"/>
+    <hyperlink ref="E37" r:id="rId31" xr:uid="{FC235815-3203-4662-BBAC-ED62B644BB26}"/>
+    <hyperlink ref="C6" r:id="rId32" xr:uid="{7EF36710-01C0-4FE3-B21F-38371383817C}"/>
+    <hyperlink ref="E30" r:id="rId33" xr:uid="{594E3E60-A639-4655-BB91-67F59698FFFC}"/>
+    <hyperlink ref="D30" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E21" r:id="rId35" xr:uid="{D486E14E-5719-4E6E-872E-75448BF56F07}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId36"/>
